--- a/final_data_pipeline/output/312120longform_elec_options.xlsx
+++ b/final_data_pipeline/output/312120longform_elec_options.xlsx
@@ -789,7 +789,7 @@
         <v>70</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -810,10 +810,10 @@
         <v>5.577327327327327</v>
       </c>
       <c r="R5">
-        <v>1.822120038722169</v>
+        <v>1.969147761396439</v>
       </c>
       <c r="S5">
-        <v>1.990621650589496</v>
+        <v>2.170013198606573</v>
       </c>
       <c r="T5">
         <v>8.692508919385011</v>
@@ -848,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -863,10 +863,10 @@
         <v>1015966.899434441</v>
       </c>
       <c r="R6">
-        <v>1.741590909090909</v>
+        <v>1.872915723725898</v>
       </c>
       <c r="S6">
-        <v>1.89075</v>
+        <v>2.048770944115581</v>
       </c>
       <c r="T6">
         <v>126.9958624293051</v>
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -954,7 +954,7 @@
         <v>70</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -975,10 +975,10 @@
         <v>5.577327327327327</v>
       </c>
       <c r="R8">
-        <v>1.822120038722169</v>
+        <v>1.635040899548778</v>
       </c>
       <c r="S8">
-        <v>1.990621650589496</v>
+        <v>1.766799672330418</v>
       </c>
       <c r="T8">
         <v>3.517531509220683</v>
@@ -1013,7 +1013,7 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1028,10 +1028,10 @@
         <v>411123.6024292423</v>
       </c>
       <c r="R9">
-        <v>1.741590909090909</v>
+        <v>1.572614297115494</v>
       </c>
       <c r="S9">
-        <v>1.89075</v>
+        <v>1.690895540926593</v>
       </c>
       <c r="T9">
         <v>51.39045030365529</v>
@@ -1968,7 +1968,7 @@
         <v>70</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1989,10 +1989,10 @@
         <v>5.577327327327327</v>
       </c>
       <c r="R26">
-        <v>1.822120038722169</v>
+        <v>1.650171687407155</v>
       </c>
       <c r="S26">
-        <v>1.990621650589496</v>
+        <v>1.78472092464565</v>
       </c>
       <c r="T26">
         <v>4.310269403384738</v>
@@ -2027,7 +2027,7 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2042,10 +2042,10 @@
         <v>503777.5724012426</v>
       </c>
       <c r="R27">
-        <v>1.741590909090909</v>
+        <v>1.586359976998275</v>
       </c>
       <c r="S27">
-        <v>1.89075</v>
+        <v>1.707009404388715</v>
       </c>
       <c r="T27">
         <v>62.97219655015532</v>
@@ -2245,7 +2245,7 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2260,10 +2260,10 @@
         <v>3160532.165027451</v>
       </c>
       <c r="R31">
-        <v>1.741590909090909</v>
+        <v>1.586359976998275</v>
       </c>
       <c r="S31">
-        <v>1.89075</v>
+        <v>1.707009404388715</v>
       </c>
       <c r="T31">
         <v>395.0665206284314</v>
@@ -2304,7 +2304,7 @@
         <v>70</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2325,10 +2325,10 @@
         <v>5.577327327327327</v>
       </c>
       <c r="R32">
-        <v>1.822120038722169</v>
+        <v>1.650171687407155</v>
       </c>
       <c r="S32">
-        <v>1.990621650589496</v>
+        <v>1.78472092464565</v>
       </c>
       <c r="T32">
         <v>27.04119007203653</v>
@@ -2817,7 +2817,7 @@
         <v>70</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L41">
         <v>8000</v>
@@ -2838,10 +2838,10 @@
         <v>5.577327327327327</v>
       </c>
       <c r="R41">
-        <v>1.822120038722169</v>
+        <v>1.635040899548778</v>
       </c>
       <c r="S41">
-        <v>1.990621650589496</v>
+        <v>1.766799672330418</v>
       </c>
       <c r="T41">
         <v>2.254099890710647</v>
@@ -2876,7 +2876,7 @@
         <v>48</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2891,10 +2891,10 @@
         <v>263455.6833037832</v>
       </c>
       <c r="R42">
-        <v>1.741590909090909</v>
+        <v>1.572614297115494</v>
       </c>
       <c r="S42">
-        <v>1.89075</v>
+        <v>1.690895540926593</v>
       </c>
       <c r="T42">
         <v>32.9319604129729</v>
@@ -2929,7 +2929,7 @@
         <v>49</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L43">
         <v>8000</v>
